--- a/Restaurant Business Rankings/businees.xlsx
+++ b/Restaurant Business Rankings/businees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data analysis\PersonalProjects\Restaurant Business Rankings 2020\archive (6)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E55EE72-6BAA-4698-B2F7-9D6F4CA8A506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91CBF5-D910-40A3-8002-10E3953EC419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{35A18D87-72CF-4404-888C-B2413BCBF533}"/>
   </bookViews>
@@ -3433,7 +3433,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -3443,7 +3443,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Percentage of Sales Year</a:t>
             </a:r>
           </a:p>
@@ -3462,7 +3462,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -3559,8 +3559,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3578,7 +3577,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -3648,19 +3647,19 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:tint val="60000"/>
                   <a:satMod val="160000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="46000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:tint val="86000"/>
                   <a:satMod val="160000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:shade val="40000"/>
                   <a:satMod val="160000"/>
                 </a:schemeClr>
@@ -3808,7 +3807,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -3900,34 +3899,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3970,7 +3941,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
@@ -4009,7 +3979,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -4019,7 +3989,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Top 5 Categories by Sales</a:t>
             </a:r>
           </a:p>
@@ -4038,7 +4008,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -4125,48 +4095,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="60000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="46000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="86000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="40000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
-              </a:path>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4184,7 +4113,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -4282,7 +4211,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -4567,13 +4496,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="212123"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4581,7 +4507,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="212123"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Top 10 Restaurants by Sales</a:t>
             </a:r>
           </a:p>
@@ -4599,13 +4532,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:srgbClr val="212123"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4991,13 +4921,10 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5100,7 +5027,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -5110,7 +5037,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Top 10 Restaurants by Sales for Burger</a:t>
             </a:r>
           </a:p>
@@ -5129,7 +5056,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -5385,7 +5312,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -5686,7 +5613,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -5696,7 +5623,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400"/>
               <a:t>Top 10 Restaurants by Sales for Cafe</a:t>
             </a:r>
           </a:p>
@@ -5715,7 +5642,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -5802,48 +5729,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="60000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="46000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="86000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="40000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
-              </a:path>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5861,7 +5747,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -5959,7 +5845,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -6289,7 +6175,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400"/>
               <a:t>Top 10 Restaurants by Sales for Pizza</a:t>
             </a:r>
           </a:p>
@@ -6395,48 +6281,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="60000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="46000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="86000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="40000"/>
-                    <a:satMod val="160000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
-              </a:path>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="60000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6454,7 +6299,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
@@ -6552,7 +6397,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -6808,7 +6653,9 @@
       <a:schemeClr val="accent2"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -16840,1868 +16687,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086BC1B6-11B9-4D9E-A9E6-DBEED164C809}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A160:B171" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="251">
-        <item x="240"/>
-        <item x="159"/>
-        <item x="213"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="199"/>
-        <item x="118"/>
-        <item x="120"/>
-        <item x="241"/>
-        <item x="201"/>
-        <item x="47"/>
-        <item x="202"/>
-        <item x="121"/>
-        <item x="112"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="142"/>
-        <item x="164"/>
-        <item x="221"/>
-        <item x="187"/>
-        <item x="179"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="233"/>
-        <item x="144"/>
-        <item x="71"/>
-        <item x="79"/>
-        <item x="132"/>
-        <item x="42"/>
-        <item x="67"/>
-        <item x="100"/>
-        <item x="84"/>
-        <item x="63"/>
-        <item x="214"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="64"/>
-        <item x="101"/>
-        <item x="105"/>
-        <item x="170"/>
-        <item x="193"/>
-        <item x="111"/>
-        <item x="248"/>
-        <item x="119"/>
-        <item x="116"/>
-        <item x="242"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="77"/>
-        <item x="238"/>
-        <item x="168"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="8"/>
-        <item x="190"/>
-        <item x="223"/>
-        <item x="7"/>
-        <item x="78"/>
-        <item x="216"/>
-        <item x="224"/>
-        <item x="86"/>
-        <item x="53"/>
-        <item x="125"/>
-        <item x="189"/>
-        <item x="156"/>
-        <item x="175"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="83"/>
-        <item x="167"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="196"/>
-        <item x="152"/>
-        <item x="185"/>
-        <item x="38"/>
-        <item x="212"/>
-        <item x="231"/>
-        <item x="207"/>
-        <item x="244"/>
-        <item x="180"/>
-        <item x="34"/>
-        <item x="55"/>
-        <item x="229"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="217"/>
-        <item x="24"/>
-        <item x="49"/>
-        <item x="197"/>
-        <item x="172"/>
-        <item x="23"/>
-        <item x="133"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="181"/>
-        <item x="249"/>
-        <item x="13"/>
-        <item x="54"/>
-        <item x="117"/>
-        <item x="243"/>
-        <item x="195"/>
-        <item x="205"/>
-        <item x="165"/>
-        <item x="176"/>
-        <item x="209"/>
-        <item x="158"/>
-        <item x="19"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="36"/>
-        <item x="173"/>
-        <item x="247"/>
-        <item x="104"/>
-        <item x="69"/>
-        <item x="154"/>
-        <item x="62"/>
-        <item x="211"/>
-        <item x="0"/>
-        <item x="94"/>
-        <item x="220"/>
-        <item x="200"/>
-        <item x="97"/>
-        <item x="198"/>
-        <item x="234"/>
-        <item x="92"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="128"/>
-        <item x="232"/>
-        <item x="85"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="137"/>
-        <item x="230"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="60"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="215"/>
-        <item x="246"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="169"/>
-        <item x="82"/>
-        <item x="10"/>
-        <item x="140"/>
-        <item x="228"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="88"/>
-        <item x="98"/>
-        <item x="151"/>
-        <item x="52"/>
-        <item x="245"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="163"/>
-        <item x="206"/>
-        <item x="96"/>
-        <item x="157"/>
-        <item x="61"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="136"/>
-        <item x="162"/>
-        <item x="123"/>
-        <item x="149"/>
-        <item x="70"/>
-        <item x="208"/>
-        <item x="191"/>
-        <item x="148"/>
-        <item x="146"/>
-        <item x="203"/>
-        <item x="93"/>
-        <item x="12"/>
-        <item x="177"/>
-        <item x="166"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="184"/>
-        <item x="3"/>
-        <item x="192"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="219"/>
-        <item x="110"/>
-        <item x="25"/>
-        <item x="48"/>
-        <item x="95"/>
-        <item x="32"/>
-        <item x="236"/>
-        <item x="90"/>
-        <item x="188"/>
-        <item x="218"/>
-        <item x="183"/>
-        <item x="222"/>
-        <item x="65"/>
-        <item x="225"/>
-        <item x="139"/>
-        <item x="76"/>
-        <item x="178"/>
-        <item x="122"/>
-        <item x="155"/>
-        <item x="171"/>
-        <item x="129"/>
-        <item x="239"/>
-        <item x="44"/>
-        <item x="235"/>
-        <item x="210"/>
-        <item x="6"/>
-        <item x="194"/>
-        <item x="29"/>
-        <item x="174"/>
-        <item x="75"/>
-        <item x="147"/>
-        <item x="43"/>
-        <item x="73"/>
-        <item x="237"/>
-        <item x="35"/>
-        <item x="115"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="18">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="245"/>
-    </i>
-    <i>
-      <x v="181"/>
-    </i>
-    <i>
-      <x v="248"/>
-    </i>
-    <i>
-      <x v="175"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="8" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B9D3484-F05E-42CE-B69D-6C9DAF7E0F13}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="251">
-        <item x="240"/>
-        <item x="159"/>
-        <item x="213"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="199"/>
-        <item x="118"/>
-        <item x="120"/>
-        <item x="241"/>
-        <item x="201"/>
-        <item x="47"/>
-        <item x="202"/>
-        <item x="121"/>
-        <item x="112"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="142"/>
-        <item x="164"/>
-        <item x="221"/>
-        <item x="187"/>
-        <item x="179"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="233"/>
-        <item x="144"/>
-        <item x="71"/>
-        <item x="79"/>
-        <item x="132"/>
-        <item x="42"/>
-        <item x="67"/>
-        <item x="100"/>
-        <item x="84"/>
-        <item x="63"/>
-        <item x="214"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="64"/>
-        <item x="101"/>
-        <item x="105"/>
-        <item x="170"/>
-        <item x="193"/>
-        <item x="111"/>
-        <item x="248"/>
-        <item x="119"/>
-        <item x="116"/>
-        <item x="242"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="77"/>
-        <item x="238"/>
-        <item x="168"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="8"/>
-        <item x="190"/>
-        <item x="223"/>
-        <item x="7"/>
-        <item x="78"/>
-        <item x="216"/>
-        <item x="224"/>
-        <item x="86"/>
-        <item x="53"/>
-        <item x="125"/>
-        <item x="189"/>
-        <item x="156"/>
-        <item x="175"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="83"/>
-        <item x="167"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="196"/>
-        <item x="152"/>
-        <item x="185"/>
-        <item x="38"/>
-        <item x="212"/>
-        <item x="231"/>
-        <item x="207"/>
-        <item x="244"/>
-        <item x="180"/>
-        <item x="34"/>
-        <item x="55"/>
-        <item x="229"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="217"/>
-        <item x="24"/>
-        <item x="49"/>
-        <item x="197"/>
-        <item x="172"/>
-        <item x="23"/>
-        <item x="133"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="181"/>
-        <item x="249"/>
-        <item x="13"/>
-        <item x="54"/>
-        <item x="117"/>
-        <item x="243"/>
-        <item x="195"/>
-        <item x="205"/>
-        <item x="165"/>
-        <item x="176"/>
-        <item x="209"/>
-        <item x="158"/>
-        <item x="19"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="36"/>
-        <item x="173"/>
-        <item x="247"/>
-        <item x="104"/>
-        <item x="69"/>
-        <item x="154"/>
-        <item x="62"/>
-        <item x="211"/>
-        <item x="0"/>
-        <item x="94"/>
-        <item x="220"/>
-        <item x="200"/>
-        <item x="97"/>
-        <item x="198"/>
-        <item x="234"/>
-        <item x="92"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="128"/>
-        <item x="232"/>
-        <item x="85"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="137"/>
-        <item x="230"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="60"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="215"/>
-        <item x="246"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="169"/>
-        <item x="82"/>
-        <item x="10"/>
-        <item x="140"/>
-        <item x="228"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="88"/>
-        <item x="98"/>
-        <item x="151"/>
-        <item x="52"/>
-        <item x="245"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="163"/>
-        <item x="206"/>
-        <item x="96"/>
-        <item x="157"/>
-        <item x="61"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="136"/>
-        <item x="162"/>
-        <item x="123"/>
-        <item x="149"/>
-        <item x="70"/>
-        <item x="208"/>
-        <item x="191"/>
-        <item x="148"/>
-        <item x="146"/>
-        <item x="203"/>
-        <item x="93"/>
-        <item x="12"/>
-        <item x="177"/>
-        <item x="166"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="184"/>
-        <item x="3"/>
-        <item x="192"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="219"/>
-        <item x="110"/>
-        <item x="25"/>
-        <item x="48"/>
-        <item x="95"/>
-        <item x="32"/>
-        <item x="236"/>
-        <item x="90"/>
-        <item x="188"/>
-        <item x="218"/>
-        <item x="183"/>
-        <item x="222"/>
-        <item x="65"/>
-        <item x="225"/>
-        <item x="139"/>
-        <item x="76"/>
-        <item x="178"/>
-        <item x="122"/>
-        <item x="155"/>
-        <item x="171"/>
-        <item x="129"/>
-        <item x="239"/>
-        <item x="44"/>
-        <item x="235"/>
-        <item x="210"/>
-        <item x="6"/>
-        <item x="194"/>
-        <item x="29"/>
-        <item x="174"/>
-        <item x="75"/>
-        <item x="147"/>
-        <item x="43"/>
-        <item x="73"/>
-        <item x="237"/>
-        <item x="35"/>
-        <item x="115"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Sales_year" fld="4" subtotal="count" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F677B67-C266-448D-8075-CF556523FBD2}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Franchising" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52FA9F73-D31A-4CB8-A6FF-A4F8DF192D34}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A26:C43" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="51">
-        <item x="46"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="13"/>
-        <item x="33"/>
-        <item x="27"/>
-        <item x="20"/>
-        <item x="24"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="38"/>
-        <item x="8"/>
-        <item x="37"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="36"/>
-        <item x="49"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="23"/>
-        <item x="9"/>
-        <item x="31"/>
-        <item x="45"/>
-        <item x="19"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="44"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="34"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="42"/>
-        <item x="48"/>
-        <item x="25"/>
-        <item x="47"/>
-        <item x="35"/>
-        <item x="43"/>
-        <item x="12"/>
-        <item x="39"/>
-        <item x="41"/>
-        <item x="22"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95895E6C-36AD-4903-907D-273FD4310B9B}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A212:A213" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="251">
-        <item x="240"/>
-        <item x="159"/>
-        <item x="213"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="199"/>
-        <item x="118"/>
-        <item x="120"/>
-        <item x="241"/>
-        <item x="201"/>
-        <item x="47"/>
-        <item x="202"/>
-        <item x="121"/>
-        <item x="112"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="142"/>
-        <item x="164"/>
-        <item x="221"/>
-        <item x="187"/>
-        <item x="179"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="233"/>
-        <item x="144"/>
-        <item x="71"/>
-        <item x="79"/>
-        <item x="132"/>
-        <item x="42"/>
-        <item x="67"/>
-        <item x="100"/>
-        <item x="84"/>
-        <item x="63"/>
-        <item x="214"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="64"/>
-        <item x="101"/>
-        <item x="105"/>
-        <item x="170"/>
-        <item x="193"/>
-        <item x="111"/>
-        <item x="248"/>
-        <item x="119"/>
-        <item x="116"/>
-        <item x="242"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="77"/>
-        <item x="238"/>
-        <item x="168"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="8"/>
-        <item x="190"/>
-        <item x="223"/>
-        <item x="7"/>
-        <item x="78"/>
-        <item x="216"/>
-        <item x="224"/>
-        <item x="86"/>
-        <item x="53"/>
-        <item x="125"/>
-        <item x="189"/>
-        <item x="156"/>
-        <item x="175"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="83"/>
-        <item x="167"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="196"/>
-        <item x="152"/>
-        <item x="185"/>
-        <item x="38"/>
-        <item x="212"/>
-        <item x="231"/>
-        <item x="207"/>
-        <item x="244"/>
-        <item x="180"/>
-        <item x="34"/>
-        <item x="55"/>
-        <item x="229"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="217"/>
-        <item x="24"/>
-        <item x="49"/>
-        <item x="197"/>
-        <item x="172"/>
-        <item x="23"/>
-        <item x="133"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="181"/>
-        <item x="249"/>
-        <item x="13"/>
-        <item x="54"/>
-        <item x="117"/>
-        <item x="243"/>
-        <item x="195"/>
-        <item x="205"/>
-        <item x="165"/>
-        <item x="176"/>
-        <item x="209"/>
-        <item x="158"/>
-        <item x="19"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="36"/>
-        <item x="173"/>
-        <item x="247"/>
-        <item x="104"/>
-        <item x="69"/>
-        <item x="154"/>
-        <item x="62"/>
-        <item x="211"/>
-        <item x="0"/>
-        <item x="94"/>
-        <item x="220"/>
-        <item x="200"/>
-        <item x="97"/>
-        <item x="198"/>
-        <item x="234"/>
-        <item x="92"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="128"/>
-        <item x="232"/>
-        <item x="85"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="137"/>
-        <item x="230"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="60"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="215"/>
-        <item x="246"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="169"/>
-        <item x="82"/>
-        <item x="10"/>
-        <item x="140"/>
-        <item x="228"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="88"/>
-        <item x="98"/>
-        <item x="151"/>
-        <item x="52"/>
-        <item x="245"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="163"/>
-        <item x="206"/>
-        <item x="96"/>
-        <item x="157"/>
-        <item x="61"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="136"/>
-        <item x="162"/>
-        <item x="123"/>
-        <item x="149"/>
-        <item x="70"/>
-        <item x="208"/>
-        <item x="191"/>
-        <item x="148"/>
-        <item x="146"/>
-        <item x="203"/>
-        <item x="93"/>
-        <item x="12"/>
-        <item x="177"/>
-        <item x="166"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="184"/>
-        <item x="3"/>
-        <item x="192"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="219"/>
-        <item x="110"/>
-        <item x="25"/>
-        <item x="48"/>
-        <item x="95"/>
-        <item x="32"/>
-        <item x="236"/>
-        <item x="90"/>
-        <item x="188"/>
-        <item x="218"/>
-        <item x="183"/>
-        <item x="222"/>
-        <item x="65"/>
-        <item x="225"/>
-        <item x="139"/>
-        <item x="76"/>
-        <item x="178"/>
-        <item x="122"/>
-        <item x="155"/>
-        <item x="171"/>
-        <item x="129"/>
-        <item x="239"/>
-        <item x="44"/>
-        <item x="235"/>
-        <item x="210"/>
-        <item x="6"/>
-        <item x="194"/>
-        <item x="29"/>
-        <item x="174"/>
-        <item x="75"/>
-        <item x="147"/>
-        <item x="43"/>
-        <item x="73"/>
-        <item x="237"/>
-        <item x="35"/>
-        <item x="115"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Restaurant" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A52BB0-76B3-42D4-9704-EFA6FFE95263}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="251">
-        <item x="240"/>
-        <item x="159"/>
-        <item x="213"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="199"/>
-        <item x="118"/>
-        <item x="120"/>
-        <item x="241"/>
-        <item x="201"/>
-        <item x="47"/>
-        <item x="202"/>
-        <item x="121"/>
-        <item x="112"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="142"/>
-        <item x="164"/>
-        <item x="221"/>
-        <item x="187"/>
-        <item x="179"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="233"/>
-        <item x="144"/>
-        <item x="71"/>
-        <item x="79"/>
-        <item x="132"/>
-        <item x="42"/>
-        <item x="67"/>
-        <item x="100"/>
-        <item x="84"/>
-        <item x="63"/>
-        <item x="214"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="64"/>
-        <item x="101"/>
-        <item x="105"/>
-        <item x="170"/>
-        <item x="193"/>
-        <item x="111"/>
-        <item x="248"/>
-        <item x="119"/>
-        <item x="116"/>
-        <item x="242"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="77"/>
-        <item x="238"/>
-        <item x="168"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="8"/>
-        <item x="190"/>
-        <item x="223"/>
-        <item x="7"/>
-        <item x="78"/>
-        <item x="216"/>
-        <item x="224"/>
-        <item x="86"/>
-        <item x="53"/>
-        <item x="125"/>
-        <item x="189"/>
-        <item x="156"/>
-        <item x="175"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="83"/>
-        <item x="167"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="196"/>
-        <item x="152"/>
-        <item x="185"/>
-        <item x="38"/>
-        <item x="212"/>
-        <item x="231"/>
-        <item x="207"/>
-        <item x="244"/>
-        <item x="180"/>
-        <item x="34"/>
-        <item x="55"/>
-        <item x="229"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="217"/>
-        <item x="24"/>
-        <item x="49"/>
-        <item x="197"/>
-        <item x="172"/>
-        <item x="23"/>
-        <item x="133"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="181"/>
-        <item x="249"/>
-        <item x="13"/>
-        <item x="54"/>
-        <item x="117"/>
-        <item x="243"/>
-        <item x="195"/>
-        <item x="205"/>
-        <item x="165"/>
-        <item x="176"/>
-        <item x="209"/>
-        <item x="158"/>
-        <item x="19"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="36"/>
-        <item x="173"/>
-        <item x="247"/>
-        <item x="104"/>
-        <item x="69"/>
-        <item x="154"/>
-        <item x="62"/>
-        <item x="211"/>
-        <item x="0"/>
-        <item x="94"/>
-        <item x="220"/>
-        <item x="200"/>
-        <item x="97"/>
-        <item x="198"/>
-        <item x="234"/>
-        <item x="92"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="128"/>
-        <item x="232"/>
-        <item x="85"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="137"/>
-        <item x="230"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="60"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="215"/>
-        <item x="246"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="169"/>
-        <item x="82"/>
-        <item x="10"/>
-        <item x="140"/>
-        <item x="228"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="88"/>
-        <item x="98"/>
-        <item x="151"/>
-        <item x="52"/>
-        <item x="245"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="163"/>
-        <item x="206"/>
-        <item x="96"/>
-        <item x="157"/>
-        <item x="61"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="136"/>
-        <item x="162"/>
-        <item x="123"/>
-        <item x="149"/>
-        <item x="70"/>
-        <item x="208"/>
-        <item x="191"/>
-        <item x="148"/>
-        <item x="146"/>
-        <item x="203"/>
-        <item x="93"/>
-        <item x="12"/>
-        <item x="177"/>
-        <item x="166"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="184"/>
-        <item x="3"/>
-        <item x="192"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="219"/>
-        <item x="110"/>
-        <item x="25"/>
-        <item x="48"/>
-        <item x="95"/>
-        <item x="32"/>
-        <item x="236"/>
-        <item x="90"/>
-        <item x="188"/>
-        <item x="218"/>
-        <item x="183"/>
-        <item x="222"/>
-        <item x="65"/>
-        <item x="225"/>
-        <item x="139"/>
-        <item x="76"/>
-        <item x="178"/>
-        <item x="122"/>
-        <item x="155"/>
-        <item x="171"/>
-        <item x="129"/>
-        <item x="239"/>
-        <item x="44"/>
-        <item x="235"/>
-        <item x="210"/>
-        <item x="6"/>
-        <item x="194"/>
-        <item x="29"/>
-        <item x="174"/>
-        <item x="75"/>
-        <item x="147"/>
-        <item x="43"/>
-        <item x="73"/>
-        <item x="237"/>
-        <item x="35"/>
-        <item x="115"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" dataField="1" numFmtId="164" showAll="0">
-      <items count="204">
-        <item x="202"/>
-        <item x="201"/>
-        <item x="200"/>
-        <item x="199"/>
-        <item x="198"/>
-        <item x="197"/>
-        <item x="196"/>
-        <item x="195"/>
-        <item x="194"/>
-        <item x="193"/>
-        <item x="192"/>
-        <item x="191"/>
-        <item x="190"/>
-        <item x="189"/>
-        <item x="188"/>
-        <item x="187"/>
-        <item x="186"/>
-        <item x="185"/>
-        <item x="184"/>
-        <item x="183"/>
-        <item x="182"/>
-        <item x="181"/>
-        <item x="180"/>
-        <item x="179"/>
-        <item x="178"/>
-        <item x="177"/>
-        <item x="176"/>
-        <item x="175"/>
-        <item x="174"/>
-        <item x="173"/>
-        <item x="172"/>
-        <item x="171"/>
-        <item x="170"/>
-        <item x="169"/>
-        <item x="168"/>
-        <item x="167"/>
-        <item x="166"/>
-        <item x="165"/>
-        <item x="164"/>
-        <item x="163"/>
-        <item x="162"/>
-        <item x="161"/>
-        <item x="160"/>
-        <item x="159"/>
-        <item x="158"/>
-        <item x="157"/>
-        <item x="156"/>
-        <item x="155"/>
-        <item x="154"/>
-        <item x="153"/>
-        <item x="152"/>
-        <item x="151"/>
-        <item x="150"/>
-        <item x="149"/>
-        <item x="148"/>
-        <item x="147"/>
-        <item x="146"/>
-        <item x="145"/>
-        <item x="144"/>
-        <item x="143"/>
-        <item x="142"/>
-        <item x="141"/>
-        <item x="140"/>
-        <item x="139"/>
-        <item x="138"/>
-        <item x="137"/>
-        <item x="136"/>
-        <item x="135"/>
-        <item x="134"/>
-        <item x="133"/>
-        <item x="132"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="129"/>
-        <item x="128"/>
-        <item x="127"/>
-        <item x="126"/>
-        <item x="125"/>
-        <item x="124"/>
-        <item x="123"/>
-        <item x="122"/>
-        <item x="121"/>
-        <item x="120"/>
-        <item x="119"/>
-        <item x="118"/>
-        <item x="117"/>
-        <item x="116"/>
-        <item x="115"/>
-        <item x="114"/>
-        <item x="113"/>
-        <item x="112"/>
-        <item x="111"/>
-        <item x="110"/>
-        <item x="109"/>
-        <item x="108"/>
-        <item x="107"/>
-        <item x="106"/>
-        <item x="105"/>
-        <item x="104"/>
-        <item x="103"/>
-        <item x="102"/>
-        <item x="101"/>
-        <item x="100"/>
-        <item x="99"/>
-        <item x="98"/>
-        <item x="97"/>
-        <item x="96"/>
-        <item x="95"/>
-        <item x="94"/>
-        <item x="93"/>
-        <item x="92"/>
-        <item x="91"/>
-        <item x="90"/>
-        <item x="89"/>
-        <item x="88"/>
-        <item x="87"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="81"/>
-        <item x="80"/>
-        <item x="79"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="74"/>
-        <item x="73"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="60"/>
-        <item x="59"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="18">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="8" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D84361E6-9A7C-4A51-8C31-EAB65852D639}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A128:B139" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -19105,7 +17090,892 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DB9BE00-351E-4F79-A1AA-C1ABA3E616BF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="C212:C213" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="251">
+        <item x="240"/>
+        <item x="159"/>
+        <item x="213"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="150"/>
+        <item x="135"/>
+        <item x="72"/>
+        <item x="199"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="241"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="202"/>
+        <item x="121"/>
+        <item x="112"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="74"/>
+        <item x="89"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="221"/>
+        <item x="187"/>
+        <item x="179"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="233"/>
+        <item x="144"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="63"/>
+        <item x="214"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="64"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="248"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="242"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="238"/>
+        <item x="168"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="114"/>
+        <item x="8"/>
+        <item x="190"/>
+        <item x="223"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="216"/>
+        <item x="224"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="125"/>
+        <item x="189"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="83"/>
+        <item x="167"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="196"/>
+        <item x="152"/>
+        <item x="185"/>
+        <item x="38"/>
+        <item x="212"/>
+        <item x="231"/>
+        <item x="207"/>
+        <item x="244"/>
+        <item x="180"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="229"/>
+        <item x="153"/>
+        <item x="99"/>
+        <item x="217"/>
+        <item x="24"/>
+        <item x="49"/>
+        <item x="197"/>
+        <item x="172"/>
+        <item x="23"/>
+        <item x="133"/>
+        <item x="87"/>
+        <item x="68"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="181"/>
+        <item x="249"/>
+        <item x="13"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="243"/>
+        <item x="195"/>
+        <item x="205"/>
+        <item x="165"/>
+        <item x="176"/>
+        <item x="209"/>
+        <item x="158"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="36"/>
+        <item x="173"/>
+        <item x="247"/>
+        <item x="104"/>
+        <item x="69"/>
+        <item x="154"/>
+        <item x="62"/>
+        <item x="211"/>
+        <item x="0"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="200"/>
+        <item x="97"/>
+        <item x="198"/>
+        <item x="234"/>
+        <item x="92"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="186"/>
+        <item x="160"/>
+        <item x="128"/>
+        <item x="232"/>
+        <item x="85"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="137"/>
+        <item x="230"/>
+        <item x="14"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="169"/>
+        <item x="82"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="228"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="151"/>
+        <item x="52"/>
+        <item x="245"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="163"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="61"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="136"/>
+        <item x="162"/>
+        <item x="123"/>
+        <item x="149"/>
+        <item x="70"/>
+        <item x="208"/>
+        <item x="191"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="203"/>
+        <item x="93"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="166"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="184"/>
+        <item x="3"/>
+        <item x="192"/>
+        <item x="130"/>
+        <item x="109"/>
+        <item x="219"/>
+        <item x="110"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="236"/>
+        <item x="90"/>
+        <item x="188"/>
+        <item x="218"/>
+        <item x="183"/>
+        <item x="222"/>
+        <item x="65"/>
+        <item x="225"/>
+        <item x="139"/>
+        <item x="76"/>
+        <item x="178"/>
+        <item x="122"/>
+        <item x="155"/>
+        <item x="171"/>
+        <item x="129"/>
+        <item x="239"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="210"/>
+        <item x="6"/>
+        <item x="194"/>
+        <item x="29"/>
+        <item x="174"/>
+        <item x="75"/>
+        <item x="147"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="237"/>
+        <item x="35"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="18">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F677B67-C266-448D-8075-CF556523FBD2}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Franchising" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52FA9F73-D31A-4CB8-A6FF-A4F8DF192D34}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A26:C43" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="51">
+        <item x="46"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="27"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="8"/>
+        <item x="37"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="36"/>
+        <item x="49"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="31"/>
+        <item x="45"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="44"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="34"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="42"/>
+        <item x="48"/>
+        <item x="25"/>
+        <item x="47"/>
+        <item x="35"/>
+        <item x="43"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B9D3484-F05E-42CE-B69D-6C9DAF7E0F13}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="251">
+        <item x="240"/>
+        <item x="159"/>
+        <item x="213"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="150"/>
+        <item x="135"/>
+        <item x="72"/>
+        <item x="199"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="241"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="202"/>
+        <item x="121"/>
+        <item x="112"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="74"/>
+        <item x="89"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="221"/>
+        <item x="187"/>
+        <item x="179"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="233"/>
+        <item x="144"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="63"/>
+        <item x="214"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="64"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="248"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="242"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="238"/>
+        <item x="168"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="114"/>
+        <item x="8"/>
+        <item x="190"/>
+        <item x="223"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="216"/>
+        <item x="224"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="125"/>
+        <item x="189"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="83"/>
+        <item x="167"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="196"/>
+        <item x="152"/>
+        <item x="185"/>
+        <item x="38"/>
+        <item x="212"/>
+        <item x="231"/>
+        <item x="207"/>
+        <item x="244"/>
+        <item x="180"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="229"/>
+        <item x="153"/>
+        <item x="99"/>
+        <item x="217"/>
+        <item x="24"/>
+        <item x="49"/>
+        <item x="197"/>
+        <item x="172"/>
+        <item x="23"/>
+        <item x="133"/>
+        <item x="87"/>
+        <item x="68"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="181"/>
+        <item x="249"/>
+        <item x="13"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="243"/>
+        <item x="195"/>
+        <item x="205"/>
+        <item x="165"/>
+        <item x="176"/>
+        <item x="209"/>
+        <item x="158"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="36"/>
+        <item x="173"/>
+        <item x="247"/>
+        <item x="104"/>
+        <item x="69"/>
+        <item x="154"/>
+        <item x="62"/>
+        <item x="211"/>
+        <item x="0"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="200"/>
+        <item x="97"/>
+        <item x="198"/>
+        <item x="234"/>
+        <item x="92"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="186"/>
+        <item x="160"/>
+        <item x="128"/>
+        <item x="232"/>
+        <item x="85"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="137"/>
+        <item x="230"/>
+        <item x="14"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="169"/>
+        <item x="82"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="228"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="151"/>
+        <item x="52"/>
+        <item x="245"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="163"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="61"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="136"/>
+        <item x="162"/>
+        <item x="123"/>
+        <item x="149"/>
+        <item x="70"/>
+        <item x="208"/>
+        <item x="191"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="203"/>
+        <item x="93"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="166"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="184"/>
+        <item x="3"/>
+        <item x="192"/>
+        <item x="130"/>
+        <item x="109"/>
+        <item x="219"/>
+        <item x="110"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="236"/>
+        <item x="90"/>
+        <item x="188"/>
+        <item x="218"/>
+        <item x="183"/>
+        <item x="222"/>
+        <item x="65"/>
+        <item x="225"/>
+        <item x="139"/>
+        <item x="76"/>
+        <item x="178"/>
+        <item x="122"/>
+        <item x="155"/>
+        <item x="171"/>
+        <item x="129"/>
+        <item x="239"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="210"/>
+        <item x="6"/>
+        <item x="194"/>
+        <item x="29"/>
+        <item x="174"/>
+        <item x="75"/>
+        <item x="147"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="237"/>
+        <item x="35"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="18">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sales_year" fld="4" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E82AC252-6845-44F6-BEB5-7CDF770B5061}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A87:B98" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -19745,7 +18615,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3CA7413-790F-464F-BA72-99E2880E6C11}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A106:B117" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -20140,6 +19010,720 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086BC1B6-11B9-4D9E-A9E6-DBEED164C809}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A160:B171" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="251">
+        <item x="240"/>
+        <item x="159"/>
+        <item x="213"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="150"/>
+        <item x="135"/>
+        <item x="72"/>
+        <item x="199"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="241"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="202"/>
+        <item x="121"/>
+        <item x="112"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="74"/>
+        <item x="89"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="221"/>
+        <item x="187"/>
+        <item x="179"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="233"/>
+        <item x="144"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="63"/>
+        <item x="214"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="64"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="248"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="242"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="238"/>
+        <item x="168"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="114"/>
+        <item x="8"/>
+        <item x="190"/>
+        <item x="223"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="216"/>
+        <item x="224"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="125"/>
+        <item x="189"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="83"/>
+        <item x="167"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="196"/>
+        <item x="152"/>
+        <item x="185"/>
+        <item x="38"/>
+        <item x="212"/>
+        <item x="231"/>
+        <item x="207"/>
+        <item x="244"/>
+        <item x="180"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="229"/>
+        <item x="153"/>
+        <item x="99"/>
+        <item x="217"/>
+        <item x="24"/>
+        <item x="49"/>
+        <item x="197"/>
+        <item x="172"/>
+        <item x="23"/>
+        <item x="133"/>
+        <item x="87"/>
+        <item x="68"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="181"/>
+        <item x="249"/>
+        <item x="13"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="243"/>
+        <item x="195"/>
+        <item x="205"/>
+        <item x="165"/>
+        <item x="176"/>
+        <item x="209"/>
+        <item x="158"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="36"/>
+        <item x="173"/>
+        <item x="247"/>
+        <item x="104"/>
+        <item x="69"/>
+        <item x="154"/>
+        <item x="62"/>
+        <item x="211"/>
+        <item x="0"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="200"/>
+        <item x="97"/>
+        <item x="198"/>
+        <item x="234"/>
+        <item x="92"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="186"/>
+        <item x="160"/>
+        <item x="128"/>
+        <item x="232"/>
+        <item x="85"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="137"/>
+        <item x="230"/>
+        <item x="14"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="169"/>
+        <item x="82"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="228"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="151"/>
+        <item x="52"/>
+        <item x="245"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="163"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="61"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="136"/>
+        <item x="162"/>
+        <item x="123"/>
+        <item x="149"/>
+        <item x="70"/>
+        <item x="208"/>
+        <item x="191"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="203"/>
+        <item x="93"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="166"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="184"/>
+        <item x="3"/>
+        <item x="192"/>
+        <item x="130"/>
+        <item x="109"/>
+        <item x="219"/>
+        <item x="110"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="236"/>
+        <item x="90"/>
+        <item x="188"/>
+        <item x="218"/>
+        <item x="183"/>
+        <item x="222"/>
+        <item x="65"/>
+        <item x="225"/>
+        <item x="139"/>
+        <item x="76"/>
+        <item x="178"/>
+        <item x="122"/>
+        <item x="155"/>
+        <item x="171"/>
+        <item x="129"/>
+        <item x="239"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="210"/>
+        <item x="6"/>
+        <item x="194"/>
+        <item x="29"/>
+        <item x="174"/>
+        <item x="75"/>
+        <item x="147"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="237"/>
+        <item x="35"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="18">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="245"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="8" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95895E6C-36AD-4903-907D-273FD4310B9B}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A212:A213" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="251">
+        <item x="240"/>
+        <item x="159"/>
+        <item x="213"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="150"/>
+        <item x="135"/>
+        <item x="72"/>
+        <item x="199"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="241"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="202"/>
+        <item x="121"/>
+        <item x="112"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="74"/>
+        <item x="89"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="221"/>
+        <item x="187"/>
+        <item x="179"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="233"/>
+        <item x="144"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="63"/>
+        <item x="214"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="64"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="248"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="242"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="238"/>
+        <item x="168"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="114"/>
+        <item x="8"/>
+        <item x="190"/>
+        <item x="223"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="216"/>
+        <item x="224"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="125"/>
+        <item x="189"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="83"/>
+        <item x="167"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="196"/>
+        <item x="152"/>
+        <item x="185"/>
+        <item x="38"/>
+        <item x="212"/>
+        <item x="231"/>
+        <item x="207"/>
+        <item x="244"/>
+        <item x="180"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="229"/>
+        <item x="153"/>
+        <item x="99"/>
+        <item x="217"/>
+        <item x="24"/>
+        <item x="49"/>
+        <item x="197"/>
+        <item x="172"/>
+        <item x="23"/>
+        <item x="133"/>
+        <item x="87"/>
+        <item x="68"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="181"/>
+        <item x="249"/>
+        <item x="13"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="243"/>
+        <item x="195"/>
+        <item x="205"/>
+        <item x="165"/>
+        <item x="176"/>
+        <item x="209"/>
+        <item x="158"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="36"/>
+        <item x="173"/>
+        <item x="247"/>
+        <item x="104"/>
+        <item x="69"/>
+        <item x="154"/>
+        <item x="62"/>
+        <item x="211"/>
+        <item x="0"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="200"/>
+        <item x="97"/>
+        <item x="198"/>
+        <item x="234"/>
+        <item x="92"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="186"/>
+        <item x="160"/>
+        <item x="128"/>
+        <item x="232"/>
+        <item x="85"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="137"/>
+        <item x="230"/>
+        <item x="14"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="169"/>
+        <item x="82"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="228"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="151"/>
+        <item x="52"/>
+        <item x="245"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="163"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="61"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="136"/>
+        <item x="162"/>
+        <item x="123"/>
+        <item x="149"/>
+        <item x="70"/>
+        <item x="208"/>
+        <item x="191"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="203"/>
+        <item x="93"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="166"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="184"/>
+        <item x="3"/>
+        <item x="192"/>
+        <item x="130"/>
+        <item x="109"/>
+        <item x="219"/>
+        <item x="110"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="236"/>
+        <item x="90"/>
+        <item x="188"/>
+        <item x="218"/>
+        <item x="183"/>
+        <item x="222"/>
+        <item x="65"/>
+        <item x="225"/>
+        <item x="139"/>
+        <item x="76"/>
+        <item x="178"/>
+        <item x="122"/>
+        <item x="155"/>
+        <item x="171"/>
+        <item x="129"/>
+        <item x="239"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="210"/>
+        <item x="6"/>
+        <item x="194"/>
+        <item x="29"/>
+        <item x="174"/>
+        <item x="75"/>
+        <item x="147"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="237"/>
+        <item x="35"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="18">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Restaurant" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE6084A2-CCA7-435F-AB4C-A26206235CDF}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="E212:E213" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
@@ -20462,6 +20046,584 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A52BB0-76B3-42D4-9704-EFA6FFE95263}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A26:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="251">
+        <item x="240"/>
+        <item x="159"/>
+        <item x="213"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="134"/>
+        <item x="80"/>
+        <item x="150"/>
+        <item x="135"/>
+        <item x="72"/>
+        <item x="199"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="241"/>
+        <item x="201"/>
+        <item x="47"/>
+        <item x="202"/>
+        <item x="121"/>
+        <item x="112"/>
+        <item x="58"/>
+        <item x="46"/>
+        <item x="74"/>
+        <item x="89"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="221"/>
+        <item x="187"/>
+        <item x="179"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="233"/>
+        <item x="144"/>
+        <item x="71"/>
+        <item x="79"/>
+        <item x="132"/>
+        <item x="42"/>
+        <item x="67"/>
+        <item x="100"/>
+        <item x="84"/>
+        <item x="63"/>
+        <item x="214"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="64"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="248"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="242"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="77"/>
+        <item x="238"/>
+        <item x="168"/>
+        <item x="56"/>
+        <item x="26"/>
+        <item x="114"/>
+        <item x="8"/>
+        <item x="190"/>
+        <item x="223"/>
+        <item x="7"/>
+        <item x="78"/>
+        <item x="216"/>
+        <item x="224"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="125"/>
+        <item x="189"/>
+        <item x="156"/>
+        <item x="175"/>
+        <item x="57"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="131"/>
+        <item x="127"/>
+        <item x="83"/>
+        <item x="167"/>
+        <item x="182"/>
+        <item x="161"/>
+        <item x="196"/>
+        <item x="152"/>
+        <item x="185"/>
+        <item x="38"/>
+        <item x="212"/>
+        <item x="231"/>
+        <item x="207"/>
+        <item x="244"/>
+        <item x="180"/>
+        <item x="34"/>
+        <item x="55"/>
+        <item x="229"/>
+        <item x="153"/>
+        <item x="99"/>
+        <item x="217"/>
+        <item x="24"/>
+        <item x="49"/>
+        <item x="197"/>
+        <item x="172"/>
+        <item x="23"/>
+        <item x="133"/>
+        <item x="87"/>
+        <item x="68"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="181"/>
+        <item x="249"/>
+        <item x="13"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="243"/>
+        <item x="195"/>
+        <item x="205"/>
+        <item x="165"/>
+        <item x="176"/>
+        <item x="209"/>
+        <item x="158"/>
+        <item x="19"/>
+        <item x="91"/>
+        <item x="106"/>
+        <item x="36"/>
+        <item x="173"/>
+        <item x="247"/>
+        <item x="104"/>
+        <item x="69"/>
+        <item x="154"/>
+        <item x="62"/>
+        <item x="211"/>
+        <item x="0"/>
+        <item x="94"/>
+        <item x="220"/>
+        <item x="200"/>
+        <item x="97"/>
+        <item x="198"/>
+        <item x="234"/>
+        <item x="92"/>
+        <item x="59"/>
+        <item x="145"/>
+        <item x="186"/>
+        <item x="160"/>
+        <item x="128"/>
+        <item x="232"/>
+        <item x="85"/>
+        <item x="226"/>
+        <item x="102"/>
+        <item x="137"/>
+        <item x="230"/>
+        <item x="14"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="113"/>
+        <item x="143"/>
+        <item x="169"/>
+        <item x="82"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="228"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="88"/>
+        <item x="98"/>
+        <item x="151"/>
+        <item x="52"/>
+        <item x="245"/>
+        <item x="41"/>
+        <item x="138"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="163"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="157"/>
+        <item x="61"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="136"/>
+        <item x="162"/>
+        <item x="123"/>
+        <item x="149"/>
+        <item x="70"/>
+        <item x="208"/>
+        <item x="191"/>
+        <item x="148"/>
+        <item x="146"/>
+        <item x="203"/>
+        <item x="93"/>
+        <item x="12"/>
+        <item x="177"/>
+        <item x="166"/>
+        <item x="1"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="184"/>
+        <item x="3"/>
+        <item x="192"/>
+        <item x="130"/>
+        <item x="109"/>
+        <item x="219"/>
+        <item x="110"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="32"/>
+        <item x="236"/>
+        <item x="90"/>
+        <item x="188"/>
+        <item x="218"/>
+        <item x="183"/>
+        <item x="222"/>
+        <item x="65"/>
+        <item x="225"/>
+        <item x="139"/>
+        <item x="76"/>
+        <item x="178"/>
+        <item x="122"/>
+        <item x="155"/>
+        <item x="171"/>
+        <item x="129"/>
+        <item x="239"/>
+        <item x="44"/>
+        <item x="235"/>
+        <item x="210"/>
+        <item x="6"/>
+        <item x="194"/>
+        <item x="29"/>
+        <item x="174"/>
+        <item x="75"/>
+        <item x="147"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="237"/>
+        <item x="35"/>
+        <item x="115"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" dataField="1" numFmtId="164" showAll="0">
+      <items count="204">
+        <item x="202"/>
+        <item x="201"/>
+        <item x="200"/>
+        <item x="199"/>
+        <item x="198"/>
+        <item x="197"/>
+        <item x="196"/>
+        <item x="195"/>
+        <item x="194"/>
+        <item x="193"/>
+        <item x="192"/>
+        <item x="191"/>
+        <item x="190"/>
+        <item x="189"/>
+        <item x="188"/>
+        <item x="187"/>
+        <item x="186"/>
+        <item x="185"/>
+        <item x="184"/>
+        <item x="183"/>
+        <item x="182"/>
+        <item x="181"/>
+        <item x="180"/>
+        <item x="179"/>
+        <item x="178"/>
+        <item x="177"/>
+        <item x="176"/>
+        <item x="175"/>
+        <item x="174"/>
+        <item x="173"/>
+        <item x="172"/>
+        <item x="171"/>
+        <item x="170"/>
+        <item x="169"/>
+        <item x="168"/>
+        <item x="167"/>
+        <item x="166"/>
+        <item x="165"/>
+        <item x="164"/>
+        <item x="163"/>
+        <item x="162"/>
+        <item x="161"/>
+        <item x="160"/>
+        <item x="159"/>
+        <item x="158"/>
+        <item x="157"/>
+        <item x="156"/>
+        <item x="155"/>
+        <item x="154"/>
+        <item x="153"/>
+        <item x="152"/>
+        <item x="151"/>
+        <item x="150"/>
+        <item x="149"/>
+        <item x="148"/>
+        <item x="147"/>
+        <item x="146"/>
+        <item x="145"/>
+        <item x="144"/>
+        <item x="143"/>
+        <item x="142"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="137"/>
+        <item x="136"/>
+        <item x="135"/>
+        <item x="134"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="129"/>
+        <item x="128"/>
+        <item x="127"/>
+        <item x="126"/>
+        <item x="125"/>
+        <item x="124"/>
+        <item x="123"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="120"/>
+        <item x="119"/>
+        <item x="118"/>
+        <item x="117"/>
+        <item x="116"/>
+        <item x="115"/>
+        <item x="114"/>
+        <item x="113"/>
+        <item x="112"/>
+        <item x="111"/>
+        <item x="110"/>
+        <item x="109"/>
+        <item x="108"/>
+        <item x="107"/>
+        <item x="106"/>
+        <item x="105"/>
+        <item x="104"/>
+        <item x="103"/>
+        <item x="102"/>
+        <item x="101"/>
+        <item x="100"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="79"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="18">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="8" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AE72FD2-5276-48E7-8B58-54D46236901B}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A190:B201" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -20874,321 +21036,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DB9BE00-351E-4F79-A1AA-C1ABA3E616BF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="C212:C213" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="251">
-        <item x="240"/>
-        <item x="159"/>
-        <item x="213"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="134"/>
-        <item x="80"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="72"/>
-        <item x="199"/>
-        <item x="118"/>
-        <item x="120"/>
-        <item x="241"/>
-        <item x="201"/>
-        <item x="47"/>
-        <item x="202"/>
-        <item x="121"/>
-        <item x="112"/>
-        <item x="58"/>
-        <item x="46"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="142"/>
-        <item x="164"/>
-        <item x="221"/>
-        <item x="187"/>
-        <item x="179"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="233"/>
-        <item x="144"/>
-        <item x="71"/>
-        <item x="79"/>
-        <item x="132"/>
-        <item x="42"/>
-        <item x="67"/>
-        <item x="100"/>
-        <item x="84"/>
-        <item x="63"/>
-        <item x="214"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="64"/>
-        <item x="101"/>
-        <item x="105"/>
-        <item x="170"/>
-        <item x="193"/>
-        <item x="111"/>
-        <item x="248"/>
-        <item x="119"/>
-        <item x="116"/>
-        <item x="242"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="77"/>
-        <item x="238"/>
-        <item x="168"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="114"/>
-        <item x="8"/>
-        <item x="190"/>
-        <item x="223"/>
-        <item x="7"/>
-        <item x="78"/>
-        <item x="216"/>
-        <item x="224"/>
-        <item x="86"/>
-        <item x="53"/>
-        <item x="125"/>
-        <item x="189"/>
-        <item x="156"/>
-        <item x="175"/>
-        <item x="57"/>
-        <item x="81"/>
-        <item x="39"/>
-        <item x="131"/>
-        <item x="127"/>
-        <item x="83"/>
-        <item x="167"/>
-        <item x="182"/>
-        <item x="161"/>
-        <item x="196"/>
-        <item x="152"/>
-        <item x="185"/>
-        <item x="38"/>
-        <item x="212"/>
-        <item x="231"/>
-        <item x="207"/>
-        <item x="244"/>
-        <item x="180"/>
-        <item x="34"/>
-        <item x="55"/>
-        <item x="229"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="217"/>
-        <item x="24"/>
-        <item x="49"/>
-        <item x="197"/>
-        <item x="172"/>
-        <item x="23"/>
-        <item x="133"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="181"/>
-        <item x="249"/>
-        <item x="13"/>
-        <item x="54"/>
-        <item x="117"/>
-        <item x="243"/>
-        <item x="195"/>
-        <item x="205"/>
-        <item x="165"/>
-        <item x="176"/>
-        <item x="209"/>
-        <item x="158"/>
-        <item x="19"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="36"/>
-        <item x="173"/>
-        <item x="247"/>
-        <item x="104"/>
-        <item x="69"/>
-        <item x="154"/>
-        <item x="62"/>
-        <item x="211"/>
-        <item x="0"/>
-        <item x="94"/>
-        <item x="220"/>
-        <item x="200"/>
-        <item x="97"/>
-        <item x="198"/>
-        <item x="234"/>
-        <item x="92"/>
-        <item x="59"/>
-        <item x="145"/>
-        <item x="186"/>
-        <item x="160"/>
-        <item x="128"/>
-        <item x="232"/>
-        <item x="85"/>
-        <item x="226"/>
-        <item x="102"/>
-        <item x="137"/>
-        <item x="230"/>
-        <item x="14"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="60"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="215"/>
-        <item x="246"/>
-        <item x="113"/>
-        <item x="143"/>
-        <item x="169"/>
-        <item x="82"/>
-        <item x="10"/>
-        <item x="140"/>
-        <item x="228"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="88"/>
-        <item x="98"/>
-        <item x="151"/>
-        <item x="52"/>
-        <item x="245"/>
-        <item x="41"/>
-        <item x="138"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="163"/>
-        <item x="206"/>
-        <item x="96"/>
-        <item x="157"/>
-        <item x="61"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="136"/>
-        <item x="162"/>
-        <item x="123"/>
-        <item x="149"/>
-        <item x="70"/>
-        <item x="208"/>
-        <item x="191"/>
-        <item x="148"/>
-        <item x="146"/>
-        <item x="203"/>
-        <item x="93"/>
-        <item x="12"/>
-        <item x="177"/>
-        <item x="166"/>
-        <item x="1"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="184"/>
-        <item x="3"/>
-        <item x="192"/>
-        <item x="130"/>
-        <item x="109"/>
-        <item x="219"/>
-        <item x="110"/>
-        <item x="25"/>
-        <item x="48"/>
-        <item x="95"/>
-        <item x="32"/>
-        <item x="236"/>
-        <item x="90"/>
-        <item x="188"/>
-        <item x="218"/>
-        <item x="183"/>
-        <item x="222"/>
-        <item x="65"/>
-        <item x="225"/>
-        <item x="139"/>
-        <item x="76"/>
-        <item x="178"/>
-        <item x="122"/>
-        <item x="155"/>
-        <item x="171"/>
-        <item x="129"/>
-        <item x="239"/>
-        <item x="44"/>
-        <item x="235"/>
-        <item x="210"/>
-        <item x="6"/>
-        <item x="194"/>
-        <item x="29"/>
-        <item x="174"/>
-        <item x="75"/>
-        <item x="147"/>
-        <item x="43"/>
-        <item x="73"/>
-        <item x="237"/>
-        <item x="35"/>
-        <item x="115"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="3" xr16:uid="{4248268C-9D05-4495-855D-67C1906678B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
@@ -21573,7 +21420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
@@ -21586,7 +21433,7 @@
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -21615,7 +21462,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21646,7 +21493,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21677,7 +21524,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21708,7 +21555,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21739,7 +21586,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21770,7 +21617,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21801,7 +21648,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21832,7 +21679,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21863,7 +21710,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21894,7 +21741,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21925,7 +21772,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21956,7 +21803,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21987,7 +21834,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22018,7 +21865,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22049,7 +21896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22080,7 +21927,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22111,7 +21958,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22142,7 +21989,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22173,7 +22020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22204,7 +22051,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22235,7 +22082,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22266,7 +22113,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22297,7 +22144,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22328,7 +22175,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22359,7 +22206,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -22390,7 +22237,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -22421,7 +22268,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -22452,7 +22299,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22483,7 +22330,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -22514,7 +22361,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -22545,7 +22392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -22576,7 +22423,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -22607,7 +22454,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -22638,7 +22485,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -22669,7 +22516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -22700,7 +22547,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -22731,7 +22578,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -22762,7 +22609,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -22793,7 +22640,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -22824,7 +22671,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -22855,7 +22702,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22886,7 +22733,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22917,7 +22764,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -22948,7 +22795,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -22979,7 +22826,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -23010,7 +22857,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -23041,7 +22888,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -23072,7 +22919,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -23103,7 +22950,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -23134,7 +22981,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -23165,7 +23012,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -23196,7 +23043,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -23227,7 +23074,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -23258,7 +23105,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -23289,7 +23136,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -23320,7 +23167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -23351,7 +23198,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -23382,7 +23229,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -23413,7 +23260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -23444,7 +23291,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -23475,7 +23322,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -23506,7 +23353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23537,7 +23384,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23568,7 +23415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23599,7 +23446,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23630,7 +23477,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -23661,7 +23508,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -23692,7 +23539,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -23723,7 +23570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -23754,7 +23601,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23785,7 +23632,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23816,7 +23663,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -23847,7 +23694,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23878,7 +23725,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23909,7 +23756,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23940,7 +23787,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23971,7 +23818,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -24002,7 +23849,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -24033,7 +23880,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -24064,7 +23911,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -24095,7 +23942,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -24126,7 +23973,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -24157,7 +24004,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -24188,7 +24035,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -24219,7 +24066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -24250,7 +24097,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -24281,7 +24128,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -24312,7 +24159,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -24343,7 +24190,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -24374,7 +24221,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -24405,7 +24252,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -24436,7 +24283,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -24467,7 +24314,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -24498,7 +24345,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -24529,7 +24376,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -24560,7 +24407,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -24591,7 +24438,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -24622,7 +24469,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -24653,7 +24500,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -24684,7 +24531,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -24715,7 +24562,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -24746,7 +24593,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -24777,7 +24624,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -24808,7 +24655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -24839,7 +24686,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -24870,7 +24717,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -24901,7 +24748,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -24932,7 +24779,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -24963,7 +24810,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -24994,7 +24841,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -25025,7 +24872,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -25056,7 +24903,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -25087,7 +24934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -25118,7 +24965,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -25149,7 +24996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -25180,7 +25027,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -25211,7 +25058,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -25242,7 +25089,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -25273,7 +25120,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -25304,7 +25151,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -25335,7 +25182,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -25366,7 +25213,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -25397,7 +25244,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -25428,7 +25275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -25459,7 +25306,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -25490,7 +25337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -25521,7 +25368,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -25552,7 +25399,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -25583,7 +25430,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -25614,7 +25461,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -25645,7 +25492,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -25676,7 +25523,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -25707,7 +25554,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -25738,7 +25585,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -25769,7 +25616,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -25800,7 +25647,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -25831,7 +25678,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -25862,7 +25709,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -25893,7 +25740,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -25924,7 +25771,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -25955,7 +25802,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -25986,7 +25833,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -26017,7 +25864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -26048,7 +25895,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -26079,7 +25926,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -26110,7 +25957,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -26141,7 +25988,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -26172,7 +26019,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -26203,7 +26050,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -26234,7 +26081,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -26265,7 +26112,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -26296,7 +26143,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -26327,7 +26174,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -26358,7 +26205,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -26389,7 +26236,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -26420,7 +26267,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -26451,7 +26298,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -26482,7 +26329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -26513,7 +26360,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -26544,7 +26391,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -26575,7 +26422,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -26606,7 +26453,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -26637,7 +26484,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -26668,7 +26515,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -26699,7 +26546,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -26730,7 +26577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -26761,7 +26608,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -26792,7 +26639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -26823,7 +26670,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -26854,7 +26701,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -26885,7 +26732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -26916,7 +26763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -26947,7 +26794,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -26978,7 +26825,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -27009,7 +26856,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -27040,7 +26887,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -27071,7 +26918,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -27102,7 +26949,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -27133,7 +26980,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -27164,7 +27011,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -27195,7 +27042,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -27226,7 +27073,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -27257,7 +27104,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -27288,7 +27135,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -27319,7 +27166,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -27350,7 +27197,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -27381,7 +27228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -27412,7 +27259,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -27443,7 +27290,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -27474,7 +27321,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -27505,7 +27352,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -27536,7 +27383,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -27567,7 +27414,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -27598,7 +27445,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -27629,7 +27476,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -27660,7 +27507,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -27691,7 +27538,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -27722,7 +27569,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -27753,7 +27600,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -27784,7 +27631,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -27815,7 +27662,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -27846,7 +27693,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -27877,7 +27724,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -27908,7 +27755,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -27939,7 +27786,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -27970,7 +27817,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -28001,7 +27848,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -28032,7 +27879,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -28063,7 +27910,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -28094,7 +27941,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -28125,7 +27972,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -28156,7 +28003,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -28187,7 +28034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -28218,7 +28065,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -28249,7 +28096,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -28280,7 +28127,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -28311,7 +28158,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -28342,7 +28189,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -28373,7 +28220,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -28404,7 +28251,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -28435,7 +28282,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -28466,7 +28313,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -28497,7 +28344,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -28528,7 +28375,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -28559,7 +28406,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -28590,7 +28437,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -28621,7 +28468,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -28652,7 +28499,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -28683,7 +28530,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -28714,7 +28561,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -28745,7 +28592,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -28776,7 +28623,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -28807,7 +28654,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -28838,7 +28685,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -28869,7 +28716,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -28900,7 +28747,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -28931,7 +28778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -28962,7 +28809,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -28993,7 +28840,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -29024,7 +28871,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -29055,7 +28902,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -29086,7 +28933,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -29117,7 +28964,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -29148,7 +28995,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -29179,7 +29026,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -29210,7 +29057,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -29241,7 +29088,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -29272,7 +29119,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -29303,7 +29150,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -29334,7 +29181,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -30050,7 +29897,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
@@ -30064,7 +29911,7 @@
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30096,7 +29943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30128,7 +29975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30160,7 +30007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30192,7 +30039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30224,7 +30071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30256,7 +30103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30288,7 +30135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30320,7 +30167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30352,7 +30199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -30384,7 +30231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -30416,7 +30263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -30448,7 +30295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -30480,7 +30327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -30512,7 +30359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -30544,7 +30391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -30576,7 +30423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -30608,7 +30455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -30640,7 +30487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -30672,7 +30519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30704,7 +30551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30736,7 +30583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30768,7 +30615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -30800,7 +30647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -30832,7 +30679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -30864,7 +30711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30896,7 +30743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -30928,7 +30775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -30960,7 +30807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -30992,7 +30839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -31024,7 +30871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -31056,7 +30903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -31088,7 +30935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -31120,7 +30967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -31152,7 +30999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -31184,7 +31031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -31216,7 +31063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -31248,7 +31095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -31280,7 +31127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -31312,7 +31159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -31344,7 +31191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -31376,7 +31223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -31408,7 +31255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -31440,7 +31287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -31472,7 +31319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -31504,7 +31351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -31536,7 +31383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -31568,7 +31415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -31600,7 +31447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -31632,7 +31479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -31664,7 +31511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -31854,7 +31701,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -31865,7 +31712,7 @@
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31888,7 +31735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31911,7 +31758,7 @@
         <v>469803</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31934,7 +31781,7 @@
         <v>820819</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31957,7 +31804,7 @@
         <v>892830</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31980,7 +31827,7 @@
         <v>198500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32003,7 +31850,7 @@
         <v>403000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32026,7 +31873,7 @@
         <v>348567</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32049,7 +31896,7 @@
         <v>246054</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -32072,7 +31919,7 @@
         <v>210832</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -32095,7 +31942,7 @@
         <v>519000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -32118,7 +31965,7 @@
         <v>257364</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -32141,7 +31988,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -32164,7 +32011,7 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -32187,7 +32034,7 @@
         <v>277850</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -32210,7 +32057,7 @@
         <v>914500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -32233,7 +32080,7 @@
         <v>700861</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -32256,7 +32103,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -32279,7 +32126,7 @@
         <v>286000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -32302,7 +32149,7 @@
         <v>252962</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -32325,7 +32172,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -32348,7 +32195,7 @@
         <v>221059</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -32371,7 +32218,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -32394,7 +32241,7 @@
         <v>145700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -32417,7 +32264,7 @@
         <v>192774</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -32440,7 +32287,7 @@
         <v>202900</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -32463,7 +32310,7 @@
         <v>319200</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -32486,7 +32333,7 @@
         <v>276444</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -32509,7 +32356,7 @@
         <v>417500</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -32532,7 +32379,7 @@
         <v>375241</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -32555,7 +32402,7 @@
         <v>486219</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -32578,7 +32425,7 @@
         <v>625907</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -32601,7 +32448,7 @@
         <v>165148</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32624,7 +32471,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32647,7 +32494,7 @@
         <v>409752</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32670,7 +32517,7 @@
         <v>322562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32693,7 +32540,7 @@
         <v>363609</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32716,7 +32563,7 @@
         <v>252419</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -32739,7 +32586,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -32762,7 +32609,7 @@
         <v>113600</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -32785,7 +32632,7 @@
         <v>256830</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -32808,7 +32655,7 @@
         <v>473492</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -32831,7 +32678,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -32854,7 +32701,7 @@
         <v>648096</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -32877,7 +32724,7 @@
         <v>798000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -32900,7 +32747,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -32923,7 +32770,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -32946,7 +32793,7 @@
         <v>195343</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -32969,7 +32816,7 @@
         <v>611928</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -32992,7 +32839,7 @@
         <v>198200</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -33015,7 +32862,7 @@
         <v>177337</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -33038,7 +32885,7 @@
         <v>899284</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -33061,7 +32908,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -33084,7 +32931,7 @@
         <v>160762</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -33107,7 +32954,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -33130,7 +32977,7 @@
         <v>187970</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -33153,7 +33000,7 @@
         <v>296000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -33176,7 +33023,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -33199,7 +33046,7 @@
         <v>268062</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -33222,7 +33069,7 @@
         <v>959026</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -33245,7 +33092,7 @@
         <v>371000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -33268,7 +33115,7 @@
         <v>287900</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -33291,7 +33138,7 @@
         <v>168301</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -33314,7 +33161,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -33337,7 +33184,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -33360,7 +33207,7 @@
         <v>116154</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -33383,7 +33230,7 @@
         <v>176221</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -33406,7 +33253,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -33429,7 +33276,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -33452,7 +33299,7 @@
         <v>274000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -33475,7 +33322,7 @@
         <v>527130</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -33498,7 +33345,7 @@
         <v>190616</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -33521,7 +33368,7 @@
         <v>199901</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -33544,7 +33391,7 @@
         <v>180320</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -33567,7 +33414,7 @@
         <v>495927</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -33590,7 +33437,7 @@
         <v>553378</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -33613,7 +33460,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -33636,7 +33483,7 @@
         <v>129630</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -33659,7 +33506,7 @@
         <v>359000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -33682,7 +33529,7 @@
         <v>394582</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -33705,7 +33552,7 @@
         <v>312050</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -33728,7 +33575,7 @@
         <v>123204</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -33751,7 +33598,7 @@
         <v>267533</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -33774,7 +33621,7 @@
         <v>390104</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -33797,7 +33644,7 @@
         <v>238182</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -33820,7 +33667,7 @@
         <v>183000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -33843,7 +33690,7 @@
         <v>178944</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -33866,7 +33713,7 @@
         <v>174166</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -33889,7 +33736,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -33912,7 +33759,7 @@
         <v>371025</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -33935,7 +33782,7 @@
         <v>337920</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -33958,7 +33805,7 @@
         <v>478000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -33981,7 +33828,7 @@
         <v>164531</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -34004,7 +33851,7 @@
         <v>375309</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -34027,7 +33874,7 @@
         <v>251800</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -34050,7 +33897,7 @@
         <v>148135</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -34073,7 +33920,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -34096,7 +33943,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -34119,7 +33966,7 @@
         <v>87070</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -34142,7 +33989,7 @@
         <v>226226</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -34165,7 +34012,7 @@
         <v>171825</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -34201,7 +34048,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
